--- a/va_facility_data_2025-02-20/Baton Rouge VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Baton%20Rouge%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Baton Rouge VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Baton%20Rouge%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9c44f942cb7342b9a4b88fc85c755e26"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3d1ff891dad74b8cb1cf17e53bb0b593"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdafacb2531e045c28f2814c1948f6c76"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R38258b12f1f04a1193a9b2fb379c3c5a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb5a9602eda304beaa412020755598563"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re57f5b386a374612920b2976f18f9719"/>
   </x:sheets>
 </x:workbook>
 </file>
